--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Fgf2-Sdc2.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Fgf2-Sdc2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>Edge total expression derived specificity</t>
+  </si>
+  <si>
+    <t>ECs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,10 +522,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -531,49 +534,49 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>7.95494716024447</v>
+        <v>0.2151743333333333</v>
       </c>
       <c r="H2">
-        <v>7.95494716024447</v>
+        <v>0.645523</v>
       </c>
       <c r="I2">
-        <v>0.7468135253716179</v>
+        <v>0.01945888736810517</v>
       </c>
       <c r="J2">
-        <v>0.7468135253716179</v>
+        <v>0.01945888736810517</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>85.6006069268781</v>
+        <v>0.6646083333333334</v>
       </c>
       <c r="N2">
-        <v>85.6006069268781</v>
+        <v>1.993825</v>
       </c>
       <c r="O2">
-        <v>0.7160030572717094</v>
+        <v>0.005515555660921567</v>
       </c>
       <c r="P2">
-        <v>0.7160030572717094</v>
+        <v>0.005515555660921567</v>
       </c>
       <c r="Q2">
-        <v>680.948304988172</v>
+        <v>0.1430066550527778</v>
       </c>
       <c r="R2">
-        <v>680.948304988172</v>
+        <v>1.287059895475</v>
       </c>
       <c r="S2">
-        <v>0.5347207673779418</v>
+        <v>0.0001073265763783876</v>
       </c>
       <c r="T2">
-        <v>0.5347207673779418</v>
+        <v>0.0001073265763783876</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,309 +584,929 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>7.95494716024447</v>
+        <v>0.2151743333333333</v>
       </c>
       <c r="H3">
-        <v>7.95494716024447</v>
+        <v>0.645523</v>
       </c>
       <c r="I3">
-        <v>0.7468135253716179</v>
+        <v>0.01945888736810517</v>
       </c>
       <c r="J3">
-        <v>0.7468135253716179</v>
+        <v>0.01945888736810517</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>33.9528028770612</v>
+        <v>85.826024</v>
       </c>
       <c r="N3">
-        <v>33.9528028770612</v>
+        <v>257.478072</v>
       </c>
       <c r="O3">
-        <v>0.2839969427282906</v>
+        <v>0.7122664414292983</v>
       </c>
       <c r="P3">
-        <v>0.2839969427282906</v>
+        <v>0.7122664414292983</v>
       </c>
       <c r="Q3">
-        <v>270.0927528292183</v>
+        <v>18.46755749685067</v>
       </c>
       <c r="R3">
-        <v>270.0927528292183</v>
+        <v>166.208017471656</v>
       </c>
       <c r="S3">
-        <v>0.2120927579936762</v>
+        <v>0.01385991245985379</v>
       </c>
       <c r="T3">
-        <v>0.2120927579936762</v>
+        <v>0.01385991245985379</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.508987418190017</v>
+        <v>0.2151743333333333</v>
       </c>
       <c r="H4">
-        <v>0.508987418190017</v>
+        <v>0.645523</v>
       </c>
       <c r="I4">
-        <v>0.04778393627150163</v>
+        <v>0.01945888736810517</v>
       </c>
       <c r="J4">
-        <v>0.04778393627150163</v>
+        <v>0.01945888736810517</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>85.6006069268781</v>
+        <v>0.009315666666666667</v>
       </c>
       <c r="N4">
-        <v>85.6006069268781</v>
+        <v>0.027947</v>
       </c>
       <c r="O4">
-        <v>0.7160030572717094</v>
+        <v>7.731031261809587E-05</v>
       </c>
       <c r="P4">
-        <v>0.7160030572717094</v>
+        <v>7.731031261809588E-05</v>
       </c>
       <c r="Q4">
-        <v>43.56963191521017</v>
+        <v>0.002004492364555556</v>
       </c>
       <c r="R4">
-        <v>43.56963191521017</v>
+        <v>0.018040431281</v>
       </c>
       <c r="S4">
-        <v>0.03421344445887169</v>
+        <v>1.504372665628527E-06</v>
       </c>
       <c r="T4">
-        <v>0.03421344445887169</v>
+        <v>1.504372665628528E-06</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.508987418190017</v>
+        <v>0.2151743333333333</v>
       </c>
       <c r="H5">
-        <v>0.508987418190017</v>
+        <v>0.645523</v>
       </c>
       <c r="I5">
-        <v>0.04778393627150163</v>
+        <v>0.01945888736810517</v>
       </c>
       <c r="J5">
-        <v>0.04778393627150163</v>
+        <v>0.01945888736810517</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>33.9528028770612</v>
+        <v>33.99712866666667</v>
       </c>
       <c r="N5">
-        <v>33.9528028770612</v>
+        <v>101.991386</v>
       </c>
       <c r="O5">
-        <v>0.2839969427282906</v>
+        <v>0.2821406925971621</v>
       </c>
       <c r="P5">
-        <v>0.2839969427282906</v>
+        <v>0.2821406925971621</v>
       </c>
       <c r="Q5">
-        <v>17.28154947670996</v>
+        <v>7.315309496097556</v>
       </c>
       <c r="R5">
-        <v>17.28154947670996</v>
+        <v>65.837785464878</v>
       </c>
       <c r="S5">
-        <v>0.01357049181262993</v>
+        <v>0.005490143959207361</v>
       </c>
       <c r="T5">
-        <v>0.01357049181262993</v>
+        <v>0.005490143959207361</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.18791744350908</v>
+        <v>8.077181333333334</v>
       </c>
       <c r="H6">
-        <v>2.18791744350908</v>
+        <v>24.231544</v>
       </c>
       <c r="I6">
-        <v>0.2054025383568807</v>
+        <v>0.730444748601188</v>
       </c>
       <c r="J6">
-        <v>0.2054025383568807</v>
+        <v>0.730444748601188</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>85.6006069268781</v>
+        <v>0.6646083333333334</v>
       </c>
       <c r="N6">
-        <v>85.6006069268781</v>
+        <v>1.993825</v>
       </c>
       <c r="O6">
-        <v>0.7160030572717094</v>
+        <v>0.005515555660921567</v>
       </c>
       <c r="P6">
-        <v>0.7160030572717094</v>
+        <v>0.005515555660921567</v>
       </c>
       <c r="Q6">
-        <v>187.2870610702808</v>
+        <v>5.368162023977778</v>
       </c>
       <c r="R6">
-        <v>187.2870610702808</v>
+        <v>48.3134582158</v>
       </c>
       <c r="S6">
-        <v>0.1470688454348961</v>
+        <v>0.004028808668137714</v>
       </c>
       <c r="T6">
-        <v>0.1470688454348961</v>
+        <v>0.004028808668137714</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>8.077181333333334</v>
+      </c>
+      <c r="H7">
+        <v>24.231544</v>
+      </c>
+      <c r="I7">
+        <v>0.730444748601188</v>
+      </c>
+      <c r="J7">
+        <v>0.730444748601188</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>85.826024</v>
+      </c>
+      <c r="N7">
+        <v>257.478072</v>
+      </c>
+      <c r="O7">
+        <v>0.7122664414292983</v>
+      </c>
+      <c r="P7">
+        <v>0.7122664414292983</v>
+      </c>
+      <c r="Q7">
+        <v>693.2323589670187</v>
+      </c>
+      <c r="R7">
+        <v>6239.091230703168</v>
+      </c>
+      <c r="S7">
+        <v>0.5202712817468866</v>
+      </c>
+      <c r="T7">
+        <v>0.5202712817468866</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="B7" t="s">
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>8.077181333333334</v>
+      </c>
+      <c r="H8">
+        <v>24.231544</v>
+      </c>
+      <c r="I8">
+        <v>0.730444748601188</v>
+      </c>
+      <c r="J8">
+        <v>0.730444748601188</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.009315666666666667</v>
+      </c>
+      <c r="N8">
+        <v>0.027947</v>
+      </c>
+      <c r="O8">
+        <v>7.731031261809587E-05</v>
+      </c>
+      <c r="P8">
+        <v>7.731031261809588E-05</v>
+      </c>
+      <c r="Q8">
+        <v>0.07524432890755556</v>
+      </c>
+      <c r="R8">
+        <v>0.677198960168</v>
+      </c>
+      <c r="S8">
+        <v>5.647091186460429E-05</v>
+      </c>
+      <c r="T8">
+        <v>5.64709118646043E-05</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>8.077181333333334</v>
+      </c>
+      <c r="H9">
+        <v>24.231544</v>
+      </c>
+      <c r="I9">
+        <v>0.730444748601188</v>
+      </c>
+      <c r="J9">
+        <v>0.730444748601188</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>33.99712866666667</v>
+      </c>
+      <c r="N9">
+        <v>101.991386</v>
+      </c>
+      <c r="O9">
+        <v>0.2821406925971621</v>
+      </c>
+      <c r="P9">
+        <v>0.2821406925971621</v>
+      </c>
+      <c r="Q9">
+        <v>274.6009730533316</v>
+      </c>
+      <c r="R9">
+        <v>2471.408757479984</v>
+      </c>
+      <c r="S9">
+        <v>0.2060881872742991</v>
+      </c>
+      <c r="T9">
+        <v>0.2060881872742991</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.519176</v>
+      </c>
+      <c r="H10">
+        <v>1.557528</v>
+      </c>
+      <c r="I10">
+        <v>0.04695070806875992</v>
+      </c>
+      <c r="J10">
+        <v>0.04695070806875992</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.6646083333333334</v>
+      </c>
+      <c r="N10">
+        <v>1.993825</v>
+      </c>
+      <c r="O10">
+        <v>0.005515555660921567</v>
+      </c>
+      <c r="P10">
+        <v>0.005515555660921567</v>
+      </c>
+      <c r="Q10">
+        <v>0.3450486960666667</v>
+      </c>
+      <c r="R10">
+        <v>3.1054382646</v>
+      </c>
+      <c r="S10">
+        <v>0.0002589592436729246</v>
+      </c>
+      <c r="T10">
+        <v>0.0002589592436729247</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
         <v>22</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>2.18791744350908</v>
-      </c>
-      <c r="H7">
-        <v>2.18791744350908</v>
-      </c>
-      <c r="I7">
-        <v>0.2054025383568807</v>
-      </c>
-      <c r="J7">
-        <v>0.2054025383568807</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>33.9528028770612</v>
-      </c>
-      <c r="N7">
-        <v>33.9528028770612</v>
-      </c>
-      <c r="O7">
-        <v>0.2839969427282906</v>
-      </c>
-      <c r="P7">
-        <v>0.2839969427282906</v>
-      </c>
-      <c r="Q7">
-        <v>74.28592967074748</v>
-      </c>
-      <c r="R7">
-        <v>74.28592967074748</v>
-      </c>
-      <c r="S7">
-        <v>0.05833369292198454</v>
-      </c>
-      <c r="T7">
-        <v>0.05833369292198454</v>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.519176</v>
+      </c>
+      <c r="H11">
+        <v>1.557528</v>
+      </c>
+      <c r="I11">
+        <v>0.04695070806875992</v>
+      </c>
+      <c r="J11">
+        <v>0.04695070806875992</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>85.826024</v>
+      </c>
+      <c r="N11">
+        <v>257.478072</v>
+      </c>
+      <c r="O11">
+        <v>0.7122664414292983</v>
+      </c>
+      <c r="P11">
+        <v>0.7122664414292983</v>
+      </c>
+      <c r="Q11">
+        <v>44.558811836224</v>
+      </c>
+      <c r="R11">
+        <v>401.029306526016</v>
+      </c>
+      <c r="S11">
+        <v>0.03344141375872146</v>
+      </c>
+      <c r="T11">
+        <v>0.03344141375872147</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.519176</v>
+      </c>
+      <c r="H12">
+        <v>1.557528</v>
+      </c>
+      <c r="I12">
+        <v>0.04695070806875992</v>
+      </c>
+      <c r="J12">
+        <v>0.04695070806875992</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.009315666666666667</v>
+      </c>
+      <c r="N12">
+        <v>0.027947</v>
+      </c>
+      <c r="O12">
+        <v>7.731031261809587E-05</v>
+      </c>
+      <c r="P12">
+        <v>7.731031261809588E-05</v>
+      </c>
+      <c r="Q12">
+        <v>0.004836470557333333</v>
+      </c>
+      <c r="R12">
+        <v>0.043528235016</v>
+      </c>
+      <c r="S12">
+        <v>3.629773918436785E-06</v>
+      </c>
+      <c r="T12">
+        <v>3.629773918436787E-06</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.519176</v>
+      </c>
+      <c r="H13">
+        <v>1.557528</v>
+      </c>
+      <c r="I13">
+        <v>0.04695070806875992</v>
+      </c>
+      <c r="J13">
+        <v>0.04695070806875992</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>33.99712866666667</v>
+      </c>
+      <c r="N13">
+        <v>101.991386</v>
+      </c>
+      <c r="O13">
+        <v>0.2821406925971621</v>
+      </c>
+      <c r="P13">
+        <v>0.2821406925971621</v>
+      </c>
+      <c r="Q13">
+        <v>17.65049327264533</v>
+      </c>
+      <c r="R13">
+        <v>158.854439453808</v>
+      </c>
+      <c r="S13">
+        <v>0.01324670529244709</v>
+      </c>
+      <c r="T13">
+        <v>0.01324670529244709</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>2.246363333333333</v>
+      </c>
+      <c r="H14">
+        <v>6.73909</v>
+      </c>
+      <c r="I14">
+        <v>0.2031456559619469</v>
+      </c>
+      <c r="J14">
+        <v>0.2031456559619469</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.6646083333333334</v>
+      </c>
+      <c r="N14">
+        <v>1.993825</v>
+      </c>
+      <c r="O14">
+        <v>0.005515555660921567</v>
+      </c>
+      <c r="P14">
+        <v>0.005515555660921567</v>
+      </c>
+      <c r="Q14">
+        <v>1.492951791027778</v>
+      </c>
+      <c r="R14">
+        <v>13.43656611925</v>
+      </c>
+      <c r="S14">
+        <v>0.001120461172732541</v>
+      </c>
+      <c r="T14">
+        <v>0.001120461172732541</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>2.246363333333333</v>
+      </c>
+      <c r="H15">
+        <v>6.73909</v>
+      </c>
+      <c r="I15">
+        <v>0.2031456559619469</v>
+      </c>
+      <c r="J15">
+        <v>0.2031456559619469</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>85.826024</v>
+      </c>
+      <c r="N15">
+        <v>257.478072</v>
+      </c>
+      <c r="O15">
+        <v>0.7122664414292983</v>
+      </c>
+      <c r="P15">
+        <v>0.7122664414292983</v>
+      </c>
+      <c r="Q15">
+        <v>192.7964333593867</v>
+      </c>
+      <c r="R15">
+        <v>1735.16790023448</v>
+      </c>
+      <c r="S15">
+        <v>0.1446938334638365</v>
+      </c>
+      <c r="T15">
+        <v>0.1446938334638365</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>2.246363333333333</v>
+      </c>
+      <c r="H16">
+        <v>6.73909</v>
+      </c>
+      <c r="I16">
+        <v>0.2031456559619469</v>
+      </c>
+      <c r="J16">
+        <v>0.2031456559619469</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.009315666666666667</v>
+      </c>
+      <c r="N16">
+        <v>0.027947</v>
+      </c>
+      <c r="O16">
+        <v>7.731031261809587E-05</v>
+      </c>
+      <c r="P16">
+        <v>7.731031261809588E-05</v>
+      </c>
+      <c r="Q16">
+        <v>0.02092637202555556</v>
+      </c>
+      <c r="R16">
+        <v>0.18833734823</v>
+      </c>
+      <c r="S16">
+        <v>1.570525416942627E-05</v>
+      </c>
+      <c r="T16">
+        <v>1.570525416942627E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>2.246363333333333</v>
+      </c>
+      <c r="H17">
+        <v>6.73909</v>
+      </c>
+      <c r="I17">
+        <v>0.2031456559619469</v>
+      </c>
+      <c r="J17">
+        <v>0.2031456559619469</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>33.99712866666667</v>
+      </c>
+      <c r="N17">
+        <v>101.991386</v>
+      </c>
+      <c r="O17">
+        <v>0.2821406925971621</v>
+      </c>
+      <c r="P17">
+        <v>0.2821406925971621</v>
+      </c>
+      <c r="Q17">
+        <v>76.36990327541557</v>
+      </c>
+      <c r="R17">
+        <v>687.32912947874</v>
+      </c>
+      <c r="S17">
+        <v>0.05731565607120852</v>
+      </c>
+      <c r="T17">
+        <v>0.05731565607120852</v>
       </c>
     </row>
   </sheetData>
